--- a/data/trans_camb/POLIPATOLOGIA_2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_2-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.448446822165039</v>
+        <v>-1.371467964845876</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7440453738291889</v>
+        <v>-0.8063523832309522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.753326596516662</v>
+        <v>3.829959185929944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.618553519436728</v>
+        <v>-1.639501887333224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.857098016915837</v>
+        <v>-2.208283404857353</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.629682758561145</v>
+        <v>7.099028646374292</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.889877821253667</v>
+        <v>-0.8671631971801483</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6374476655183289</v>
+        <v>-0.6762054933845039</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.466417173092474</v>
+        <v>6.375818620523263</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.636379696073225</v>
+        <v>2.67208719464481</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.693431087650434</v>
+        <v>3.757127506944053</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.16799556766999</v>
+        <v>14.4510880030548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.570684050827123</v>
+        <v>5.63774393691282</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.691349071984343</v>
+        <v>5.197623471291714</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.75473902296508</v>
+        <v>20.40375257704255</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.4589877485938</v>
+        <v>3.249748214060564</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.85116349323355</v>
+        <v>3.674633464070681</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.70147143578325</v>
+        <v>14.6531646170506</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.3109904504993138</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.068055615211915</v>
+        <v>2.068055615211914</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4603585034332617</v>
+        <v>-0.4693377628742554</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3236333301414279</v>
+        <v>-0.311724294653636</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.8931674177019508</v>
+        <v>0.88261694166311</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1811750022261798</v>
+        <v>-0.204667258962147</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1998931137187113</v>
+        <v>-0.2458147868543356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7089380165458354</v>
+        <v>0.7708843528085416</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1383562526951805</v>
+        <v>-0.1504335683024177</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1137097937338868</v>
+        <v>-0.1097081576713504</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.048109742246373</v>
+        <v>1.179571852012154</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.020286238950324</v>
+        <v>1.718563639373764</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.675726163814071</v>
+        <v>2.362038251775874</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9.203993545929112</v>
+        <v>8.798071027355507</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8754019312293341</v>
+        <v>0.9055441615311206</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8750075617416986</v>
+        <v>0.8188168240342653</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.117543656635597</v>
+        <v>3.205458464168917</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8929114364368014</v>
+        <v>0.8023949706074009</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9405046309681446</v>
+        <v>0.8651465019033469</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.459751074665616</v>
+        <v>3.53499909600526</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2400431822480056</v>
+        <v>0.0542937617320128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7045974350547271</v>
+        <v>-0.8042174858618391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.635010449744579</v>
+        <v>3.369950832275793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.09215408302301</v>
+        <v>-7.544011440389878</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.89768981675528</v>
+        <v>-6.592807539817143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.112044381028441</v>
+        <v>1.933601896721389</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.355735275092369</v>
+        <v>-2.15101484546167</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.597842777952912</v>
+        <v>-2.57005378799866</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.678504644312825</v>
+        <v>4.501094554077192</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.387666460132558</v>
+        <v>5.059640323179948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.216353863290306</v>
+        <v>4.366034951490637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.35048448602411</v>
+        <v>11.12081780365249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4935365042211556</v>
+        <v>0.2728106146633213</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.166860624036713</v>
+        <v>0.9708768225518862</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.58559045976869</v>
+        <v>11.73539001473753</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.358135806090897</v>
+        <v>2.46905108743079</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.962556486843878</v>
+        <v>1.977103642046043</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.82566421840974</v>
+        <v>10.98941880193557</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02475214184777422</v>
+        <v>-0.01201128018126115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1751608244722574</v>
+        <v>-0.1518556293928511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6755997795364889</v>
+        <v>0.6177625660430516</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4172792789249287</v>
+        <v>-0.4371103155400578</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4095186678937915</v>
+        <v>-0.3882778418846684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1253493263031833</v>
+        <v>0.1221778753317176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2312497667525732</v>
+        <v>-0.2141552113312642</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2465440291153794</v>
+        <v>-0.2575057154270324</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4359169290145963</v>
+        <v>0.4324216270911302</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.573841564341365</v>
+        <v>1.532182432651638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.280716444339828</v>
+        <v>1.374219339246523</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.318204880810329</v>
+        <v>3.32833899702901</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03966270479226722</v>
+        <v>0.04166579764057363</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08882486655300416</v>
+        <v>0.07869423537200794</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9070817505147434</v>
+        <v>0.9366388432464108</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2949925469378424</v>
+        <v>0.3091900373176207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2389826234655991</v>
+        <v>0.2438912232985945</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.290181385605582</v>
+        <v>1.315902723794974</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.3299146295352023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.34317109840264</v>
+        <v>4.343171098402637</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.702832724811634</v>
@@ -1083,7 +1083,7 @@
         <v>-2.183524339365678</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.775281956616666</v>
+        <v>9.775281956616672</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.54757517700987</v>
@@ -1092,7 +1092,7 @@
         <v>-1.450649393859724</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.899703735130116</v>
+        <v>6.899703735130111</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.699047501054438</v>
+        <v>-2.918576400988023</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.877631200357222</v>
+        <v>-3.797998971157693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6390576228163031</v>
+        <v>0.4452715615603579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4157571950130209</v>
+        <v>0.2645468840314463</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.057623155359638</v>
+        <v>-5.955608578431564</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.686887390581386</v>
+        <v>5.320382970579375</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2651046509693312</v>
+        <v>-0.2375254344163817</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.049211891202725</v>
+        <v>-4.040029395531591</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.226922877871656</v>
+        <v>4.199490928669569</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.789165771883402</v>
+        <v>3.625606015015981</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.701645312766408</v>
+        <v>2.972191615402999</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.285485195733051</v>
+        <v>8.02436323505759</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.515149013285457</v>
+        <v>9.38454902631004</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.152963410634195</v>
+        <v>2.10319333475379</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.00117469483501</v>
+        <v>14.19356363136347</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.38342059313725</v>
+        <v>5.65341695628765</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.315821764297295</v>
+        <v>1.124794859120074</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.924532153423844</v>
+        <v>9.90321663512022</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.03441855923567578</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4531041619210645</v>
+        <v>0.4531041619210641</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2529163912853079</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1174290323537125</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5257106048488884</v>
+        <v>0.5257106048488888</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1786131363748878</v>
@@ -1197,7 +1197,7 @@
         <v>-0.101706532688755</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4837453808274189</v>
+        <v>0.4837453808274185</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2389565586368757</v>
+        <v>-0.2632160473402602</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3440764755817808</v>
+        <v>-0.3419214064163706</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.0481651628205063</v>
+        <v>0.04454366250223105</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01630499862773944</v>
+        <v>0.01239204230297085</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2967194694569</v>
+        <v>-0.290923185126233</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2787410118494735</v>
+        <v>0.2619077024883856</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0146202122736728</v>
+        <v>-0.01639372003391287</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2624958143921479</v>
+        <v>-0.26132012988303</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2692056855436468</v>
+        <v>0.2656680179227175</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4680762105879704</v>
+        <v>0.4679629167248889</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3366663871209282</v>
+        <v>0.3699089986450208</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.0511587028765</v>
+        <v>1.003768745748742</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5763334563622636</v>
+        <v>0.5715978784758726</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1351356298742321</v>
+        <v>0.1390368504607961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8563292618785985</v>
+        <v>0.8810227922959794</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.417385808555562</v>
+        <v>0.4463982138460489</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.098394089739561</v>
+        <v>0.08632325077473756</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7765510546692658</v>
+        <v>0.7696847304512765</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.034732815404256</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.46722624868034</v>
+        <v>14.46722624868033</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.065303300187711</v>
@@ -1306,7 +1306,7 @@
         <v>4.417483108178239</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.47442639365617</v>
+        <v>14.47442639365618</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.766134903092607</v>
+        <v>-3.843501008700725</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.844152686788783</v>
+        <v>1.278995824756815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.305424662550934</v>
+        <v>9.113759269262104</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.412456835775957</v>
+        <v>-1.425207713940907</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.981776388707822</v>
+        <v>-3.019393106737436</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.13654538859797</v>
+        <v>9.383620745558151</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.500132618703613</v>
+        <v>-1.360805473069502</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8631346521027542</v>
+        <v>0.6728758348658056</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>11.13808076726333</v>
+        <v>11.04513231858854</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.423031512876944</v>
+        <v>5.262177104344318</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.42383145571364</v>
+        <v>10.61340043549771</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.93322186949307</v>
+        <v>19.05709417874618</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.813415823036902</v>
+        <v>9.900875602807009</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.158648256501342</v>
+        <v>8.296047791446782</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.0653529685158</v>
+        <v>18.81445054196855</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.086877847789963</v>
+        <v>5.730932516641181</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.141651697758236</v>
+        <v>8.007639728885312</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.97578559789881</v>
+        <v>18.18480040203644</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3832129666099708</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9186866857175094</v>
+        <v>0.9186866857175091</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1399926635065665</v>
@@ -1411,7 +1411,7 @@
         <v>0.1974642424147597</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6470158622497205</v>
+        <v>0.6470158622497207</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.209744796503907</v>
+        <v>-0.2119567407798096</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09886330047742424</v>
+        <v>0.06206413367682156</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5082150085125757</v>
+        <v>0.480890902667728</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.054451037161988</v>
+        <v>-0.04572643632351839</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06082109363243262</v>
+        <v>-0.09686076485574331</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2776892492305966</v>
+        <v>0.2742532873264834</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06155215770681437</v>
+        <v>-0.05570777348878114</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03321078158635489</v>
+        <v>0.02672661942439443</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4615990904866116</v>
+        <v>0.4544017654424625</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4080219819978678</v>
+        <v>0.407056460052272</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7661604821062801</v>
+        <v>0.7843951780031112</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.408510691115416</v>
+        <v>1.447302068340927</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3694597378969717</v>
+        <v>0.3929537181298747</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3179808408814696</v>
+        <v>0.3150974597628181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7476136296200734</v>
+        <v>0.721603985124042</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2970914753891186</v>
+        <v>0.2830983618733855</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3920213670721776</v>
+        <v>0.3931703660301958</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8882668958908249</v>
+        <v>0.8876083621030394</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.803110912476137</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.775276389600713</v>
+        <v>4.775276389600725</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.095436872851299</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.337823047840304</v>
+        <v>-8.162819977998613</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.09312944073784</v>
+        <v>-11.8408555264849</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.341211362527684</v>
+        <v>-2.553414789465877</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.746507365135245</v>
+        <v>2.395222224248657</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.80854804939717</v>
+        <v>-4.311924595186908</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9970862181929042</v>
+        <v>-0.8772988590825694</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.137980375921948</v>
+        <v>-0.5495354175971049</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.880264731306337</v>
+        <v>-5.579254574938453</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.06040976815107167</v>
+        <v>0.09395576251883275</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.489785086139434</v>
+        <v>5.464698971909761</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.282544495220786</v>
+        <v>0.999149176810165</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.07260751066959</v>
+        <v>10.04089659386741</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.85982746587432</v>
+        <v>16.15070274679598</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.823459533610377</v>
+        <v>9.17981938488065</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.98424825603912</v>
+        <v>10.8118184322896</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.214786407864359</v>
+        <v>8.913808525541405</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.187198455370187</v>
+        <v>4.211011886799396</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.101806887462075</v>
+        <v>8.51599981925855</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.0542722641955385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09245622806776235</v>
+        <v>0.09245622806776257</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.08726901806663526</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1873041113316491</v>
+        <v>-0.1801347755552334</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2580238791241358</v>
+        <v>-0.2580894798572357</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05035621159089758</v>
+        <v>-0.05624502776924332</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03316906211639461</v>
+        <v>0.0439336187562541</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.06685133920354376</v>
+        <v>-0.07781826633298253</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01896870458439075</v>
+        <v>-0.01549891934195752</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02431969229752559</v>
+        <v>-0.01111413212789329</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1181746201550999</v>
+        <v>-0.1139020242070009</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.001082913436886872</v>
+        <v>0.002478148844576188</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1382032656828114</v>
+        <v>0.1357611365339654</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.06237631510594538</v>
+        <v>0.02343562921566215</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2598610286435343</v>
+        <v>0.2607085522793799</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3094675284736181</v>
+        <v>0.340052078005296</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2088447343075785</v>
+        <v>0.1883386306446106</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2297027722446678</v>
+        <v>0.2279934856592762</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2072300396303213</v>
+        <v>0.199160851746989</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09346467460544443</v>
+        <v>0.09714575856183139</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2041967451242934</v>
+        <v>0.1937895350861263</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.331047691969945</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.3119387980954014</v>
+        <v>-0.3119387980954236</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.34917151272471</v>
@@ -1734,7 +1734,7 @@
         <v>0.6852373783567178</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>1.661535249188906</v>
+        <v>1.661535249188917</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>11.36373806823678</v>
+        <v>11.45433946720217</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.891865203608154</v>
+        <v>-3.585722898574392</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.318109016282814</v>
+        <v>-2.026662029289714</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.623634843209458</v>
+        <v>-2.181556261065011</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.438659134882847</v>
+        <v>-9.12385133738645</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.874916131046346</v>
+        <v>-5.933535018063516</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.313962979355161</v>
+        <v>6.40671147297193</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.605972727381421</v>
+        <v>-4.803328373623898</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-2.562768225448968</v>
+        <v>-3.182702714980739</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>26.65440027786381</v>
+        <v>27.93469637229957</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11.92142083703572</v>
+        <v>12.01031706374478</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11.77587751938404</v>
+        <v>11.53846341628474</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.02960434042395</v>
+        <v>11.07150459486201</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.981317770765041</v>
+        <v>4.64881561269803</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.139171779903037</v>
+        <v>5.256572137140843</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>16.54378464233425</v>
+        <v>16.44223161792074</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.231846135985005</v>
+        <v>5.62202249056333</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.310143265364024</v>
+        <v>6.061185549712848</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03229890074768716</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.004322211130104196</v>
+        <v>-0.004322211130104504</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1800275044493287</v>
@@ -1839,7 +1839,7 @@
         <v>0.01086965467414491</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.0263562890146383</v>
+        <v>0.02635628901463848</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2058683690006102</v>
+        <v>0.2035883720666052</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.06767320590052281</v>
+        <v>-0.06266428909892642</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.04075911078733312</v>
+        <v>-0.03555487910488517</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02172978934234679</v>
+        <v>-0.0271415327744843</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1120816023090122</v>
+        <v>-0.1251785778829946</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07605817796998987</v>
+        <v>-0.07810394969264935</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09405198386263906</v>
+        <v>0.09806513131535968</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.07031458042660897</v>
+        <v>-0.07380832506257345</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.039517166674317</v>
+        <v>-0.04785652519055582</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5496931632511356</v>
+        <v>0.602904030290548</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2502505015269685</v>
+        <v>0.2452115989302474</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2535214584219007</v>
+        <v>0.241805481523399</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1584953448039396</v>
+        <v>0.1617047341953501</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.07344924600287027</v>
+        <v>0.06665298646978553</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07502956113243309</v>
+        <v>0.07790278112616891</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2750574756362213</v>
+        <v>0.2708120597576132</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1043117482573929</v>
+        <v>0.09297642714806373</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1046852834811947</v>
+        <v>0.09976057340561023</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>2.005440741449627</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.495793872791142</v>
+        <v>3.495793872791131</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.307471673288534</v>
+        <v>4.693854424964313</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.13307986215469</v>
+        <v>-3.167878984414732</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.940381253856705</v>
+        <v>-1.71373037500159</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.109333867012426</v>
+        <v>3.867034100380939</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.894950657169993</v>
+        <v>-5.319057826008054</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.322098173282503</v>
+        <v>-2.589556681990377</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.794486387204968</v>
+        <v>5.557861244107796</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.461462371649312</v>
+        <v>-3.89259196629246</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.7743648451242918</v>
+        <v>-1.009955934093949</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.75736551724597</v>
+        <v>20.34902775076475</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.15569511248042</v>
+        <v>13.08849182308415</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.02278943034954</v>
+        <v>13.95486325001209</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.48201606634249</v>
+        <v>14.83697606182353</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.82894827067804</v>
+        <v>6.902536895536018</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.828640021666451</v>
+        <v>8.224046728996143</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.34928201112548</v>
+        <v>15.06650316271235</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.393771691199806</v>
+        <v>6.931829343480302</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.802198732364523</v>
+        <v>7.628088449485558</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.0263003397919457</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.04584556641177533</v>
+        <v>0.04584556641177519</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.06131619155739553</v>
+        <v>0.06571918253049061</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.0435814964170154</v>
+        <v>-0.04170553691980541</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.02522203862947463</v>
+        <v>-0.02333671002908299</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04926480130349063</v>
+        <v>0.04755710652136652</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07011463043749501</v>
+        <v>-0.06483377258570212</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02751850264155013</v>
+        <v>-0.03107611482622327</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07241862460097709</v>
+        <v>0.07271169545652881</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03247227844688473</v>
+        <v>-0.04853970275864279</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.00978507643860068</v>
+        <v>-0.01301745295437094</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3291517484596841</v>
+        <v>0.3193316197257276</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2071308793457443</v>
+        <v>0.2062353000012558</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.201845078468525</v>
+        <v>0.2216431747089678</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2023201669063799</v>
+        <v>0.196074546962052</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08838633504486883</v>
+        <v>0.08896108849647037</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1016033199319944</v>
+        <v>0.106858856061594</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.209869442836269</v>
+        <v>0.2066357380887951</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.100980855150741</v>
+        <v>0.09290239648856921</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1082739668813157</v>
+        <v>0.105043535604868</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.538143455205788</v>
+        <v>2.466680077505687</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.132923669624459</v>
+        <v>1.917317879910314</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10.29658863359305</v>
+        <v>10.3912292302399</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.85583014441494</v>
+        <v>2.753135772909265</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.2229182655611469</v>
+        <v>0.5085712778463253</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>10.54325423904723</v>
+        <v>10.37881724786164</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.308957919499468</v>
+        <v>3.368000704398285</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.577715959717741</v>
+        <v>1.778391531164891</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>11.00798545112286</v>
+        <v>11.04986232517131</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.546152690139205</v>
+        <v>6.640526496895998</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.044825144563394</v>
+        <v>5.985836724571659</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>14.52338713094144</v>
+        <v>14.70630910703348</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.584785379292586</v>
+        <v>7.431919372617936</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.859399779585329</v>
+        <v>5.1361925052186</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>14.7965263785499</v>
+        <v>14.83009951906795</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.427614373315962</v>
+        <v>6.555343924487632</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.89457759220364</v>
+        <v>4.970366236587018</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>14.09070815635819</v>
+        <v>14.12356340842136</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.07746783008724742</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3768416022289268</v>
+        <v>0.3768416022289267</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1824995874025954</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1203917674225191</v>
+        <v>0.1162254681675586</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1010518028162075</v>
+        <v>0.09322545923812156</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4941089373104396</v>
+        <v>0.4966844501181629</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.08264721948084124</v>
+        <v>0.07906748363655282</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.008143530398260962</v>
+        <v>0.01447649722833916</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3051334482757365</v>
+        <v>0.2955902176934184</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1201983915327851</v>
+        <v>0.1223777169711442</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.05730745734313816</v>
+        <v>0.06493103542298324</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.3958979742801711</v>
+        <v>0.3992849554432429</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3449316805304665</v>
+        <v>0.3566126860555618</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3249158983782847</v>
+        <v>0.3191162116855832</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7744543505151372</v>
+        <v>0.7875617219686932</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2343668648272905</v>
+        <v>0.2295322978872502</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1516794966754929</v>
+        <v>0.1593911957119557</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4594345136469144</v>
+        <v>0.4596790204347987</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2453007642277735</v>
+        <v>0.2537896746340492</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1872618102693984</v>
+        <v>0.1898127761425289</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5440345005171866</v>
+        <v>0.5442402823602546</v>
       </c>
     </row>
     <row r="52">
